--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HMARNE\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HMARNE\IdeaProjects\FacebookWebsite\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8495F0E-D280-417C-984A-9B51A2BF129B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57108E46-0223-4551-A2CF-F1335FE8D5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EDCC850A-5CC2-4B18-9016-2EB4DB7D60DC}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Search input should check spell of text entered by user</t>
   </si>
   <si>
-    <t>User should able to enter a text and search for a person</t>
-  </si>
-  <si>
     <t>Search results should be displayed relevant to search text to user</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>omkar</t>
+  </si>
+  <si>
+    <t>Search bar should be display and visible to user</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -461,58 +461,59 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>